--- a/Document/인벤토리.xlsx
+++ b/Document/인벤토리.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\210-32\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kangilgu\Desktop\project\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19920" windowHeight="9570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
     <sheet name="구성" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="스텟" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -656,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -666,7 +666,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -730,7 +730,7 @@
       <c r="E40" s="2"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -788,7 +788,7 @@
       <c r="C61" s="1"/>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B71" t="s">
+      <c r="B71" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -827,28 +827,28 @@
       <c r="D77" s="9"/>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B88" t="s">
+      <c r="B88" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B89" t="s">
+      <c r="B89" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B109" t="s">
+      <c r="B109" s="1" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C77:D77"/>
     <mergeCell ref="C72:D72"/>
     <mergeCell ref="C73:D73"/>
     <mergeCell ref="C74:D74"/>
     <mergeCell ref="C75:D75"/>
     <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -861,7 +861,7 @@
   <dimension ref="B6:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Document/인벤토리.xlsx
+++ b/Document/인벤토리.xlsx
@@ -17,6 +17,7 @@
     <sheet name="스텟" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>개요</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,10 +61,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2. 인벤토리 구성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,10 +109,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - 인벤토리에서 획득한 아이템은 ~~ 을 통해 파기할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>장착 가능한 아이템</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -161,6 +154,42 @@
   </si>
   <si>
     <t>초안작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 인벤토리 UI에서 표기 되는 모든 시스템을 설명하고 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스텟에 대한 내용은 다른 문서에서 확인 할 수 있으며 해당 문서에서는 증가와 감소에 대한 내용을 다룸 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 인벤토리에서 획득한 아이템은 휴지통 버튼\을 통해 파기할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 휴지통(파기) 버튼을 클릭 한 후 아이템을 선택하면 해당 아이템을 삭제 시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 아이템 정렬 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 획득한 아이템 순으로 정렬 되며 아이템의 종류에 따라 따로 분류 보관 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 순서는 임의로 변경 할 수 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 획득한 순서대로 가장 첫 번째 칸부터 아이템이 저장된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이미지 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -282,16 +311,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -611,13 +640,13 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="E5" s="4">
         <v>0.1</v>
@@ -654,10 +683,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E109"/>
+  <dimension ref="B2:E123"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -677,33 +706,32 @@
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>8</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
+      <c r="B36" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="2"/>
@@ -729,126 +757,162 @@
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
     </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+    </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C44" s="1"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B50" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C50" s="1"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>21</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B61" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C61" s="1"/>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B71" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75" s="1"/>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B85" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B86" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C86" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B72" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D72" s="7"/>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B73" s="4"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="9"/>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B74" s="4"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="9"/>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B75" s="4"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="9"/>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B76" s="4"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="9"/>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B77" s="4"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="9"/>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B88" s="1" t="s">
+      <c r="D86" s="9"/>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B87" s="4"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="7"/>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B88" s="4"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="7"/>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B89" s="4"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="7"/>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B90" s="4"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="7"/>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B91" s="4"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="7"/>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B102" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B103" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B89" s="1" t="s">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B123" s="1" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B109" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -868,13 +932,13 @@
   <sheetData>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Document/인벤토리.xlsx
+++ b/Document/인벤토리.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19920" windowHeight="9570" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19920" windowHeight="9570" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
     <sheet name="구성" sheetId="2" r:id="rId2"/>
     <sheet name="스텟" sheetId="4" r:id="rId3"/>
+    <sheet name="조합" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="73">
   <si>
     <t>개요</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -190,6 +190,134 @@
   </si>
   <si>
     <t xml:space="preserve">이미지 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 설명 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 미리 정해진 아이템들을 조합하여 새로운 아이템을 만드는 시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 조합으로만 나오는 아이템이 존재함 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">처리 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템을 조합할 경우 재료 아이템이 제거 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템의 종류가 소비 아이템의 경우 묶음으로 표기 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>같은 이름을 가진 아이템끼리만 묶음으로 처리한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">연출 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3. 규칙 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2. 구성 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2 조합 세부 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 인벤토리 ()에 조합창을 표기한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">예외처리 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리 창을 통해서만 조합창을 확인 할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">전투 창에서는 인벤토리 창을 띄울 수 없다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">내용 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강일구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">조합 시스템 작성 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료 아이템이 모두 모인 조합법의 경우 ()로 표기한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료 아이템이 부족한 조합법의 경우 무채색으로 색상을 변경하여 표기 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템의 종류가 장비 아이템의 경우 개별로 처리 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">각 1 칸 차지 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">조합 버튼을 입력하게 되면 다른 연출 없이 바로 인벤토리에 아이템이 생성된다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">기본 규칙 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1 메인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">인벤토리 창의 ()에 조합 창이 위치한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조합이 가능한 재료가 모두 모이면 해당 조합의 레시피?가 활성화 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">활성화 되지 않은 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조합 아이템 레시피를 선택 해서 해당 아이템을 조합 할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조합에는 재료가 소모 되며 재료는 조합마다 다르다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레시피를 클릭 할 경우 조합 창에 해당 아이템의 조합에 필요한 재료를 표기한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -197,7 +325,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +350,22 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -237,7 +381,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -286,13 +430,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -322,6 +514,81 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -605,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F8"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -614,6 +881,7 @@
     <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="6" max="6" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
@@ -654,11 +922,19 @@
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="B6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
@@ -685,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E123"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -945,4 +1221,374 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I58"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47:H47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="6" width="9" style="10"/>
+    <col min="7" max="7" width="18" style="10" customWidth="1"/>
+    <col min="8" max="8" width="9" style="10"/>
+    <col min="9" max="9" width="15.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B34" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="20"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="16"/>
+      <c r="C35" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="20"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="16"/>
+      <c r="C36" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="20"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37" s="16"/>
+      <c r="C37" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="I37" s="20"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="16"/>
+      <c r="C38" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="20"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B39" s="16"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="20"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="16"/>
+      <c r="C40" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="20"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="16"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="20"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="16"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="20"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="17"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="20"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B44" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="15"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B45" s="14"/>
+      <c r="C45" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="15"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="14"/>
+      <c r="C46" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="15"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B47" s="14"/>
+      <c r="C47" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B48" s="24"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="25"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B50" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="20"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B51" s="14"/>
+      <c r="C51" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="20"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B52" s="14"/>
+      <c r="C52" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="20"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B53" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="20"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B54" s="21"/>
+      <c r="C54" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="20"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="25"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="B34:B43"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="C43:H43"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Document/인벤토리.xlsx
+++ b/Document/인벤토리.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19920" windowHeight="9570" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19920" windowHeight="9570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="102">
   <si>
     <t>개요</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -237,10 +237,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - 인벤토리 ()에 조합창을 표기한다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">예외처리 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -297,14 +293,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">인벤토리 창의 ()에 조합 창이 위치한다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조합이 가능한 재료가 모두 모이면 해당 조합의 레시피?가 활성화 된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">활성화 되지 않은 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -318,6 +306,135 @@
   </si>
   <si>
     <t>레시피를 클릭 할 경우 조합 창에 해당 아이템의 조합에 필요한 재료를 표기한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">캐릭터 정보 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">스텟 관련 정보 표기 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조합 내용 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">내용 변경 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조합 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택 시 조합 정보 표기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주) 디자인과 레이아웃을 기능 설명을 위해 임의로 잡았습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 아이콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">조합 되는 아이콘 내용 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">조합 리스트 변경 시 변경 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">재료 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">조합에 필요한 재료 내용 표기 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">보유 아이템 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">보유 하고 있는 아이템의 정보 표기 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">아이템 획득 룰에 따름 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">경험치. 증가시 스텟 포인트 지급 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 인벤토리 좌측 상단에 조합창을 표기한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 소비 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 장비 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">인벤토리 창의 좌측 상단에 조합 창이 위치한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조합 카테고리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조합 카테고리를 통해서 장비와 소비 아이템 제작을 선택한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비 조합 창과 소비 아이템 조합 창의 내용이 다르다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조합
+활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조합이 가능한 재료가 모두 모이면 해당 조합 창이 활성화 된다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -342,15 +459,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -363,6 +471,15 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -381,7 +498,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -478,117 +595,169 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -605,6 +774,148 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>549089</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>102535</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>212913</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>2823</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="549089" y="3464300"/>
+          <a:ext cx="6510618" cy="3598229"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495094</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="그림 46"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="1540008"/>
+          <a:ext cx="5980373" cy="3300933"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>605118</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>134474</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>349179</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>27376</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="그림 48"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="605118" y="5681386"/>
+          <a:ext cx="5212532" cy="2414225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -873,82 +1184,85 @@
   <dimension ref="B2:F8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="6" max="6" width="19.125" customWidth="1"/>
+    <col min="1" max="1" width="9" style="36"/>
+    <col min="2" max="2" width="10.25" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.75" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" style="36" customWidth="1"/>
+    <col min="5" max="5" width="9" style="36"/>
+    <col min="6" max="6" width="19.125" style="36" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="36"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="8">
         <v>0.1</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="E6" s="8">
         <v>0.1</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -959,263 +1273,370 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E123"/>
+  <dimension ref="B2:K132"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView showGridLines="0" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="37.125" customWidth="1"/>
+    <col min="1" max="2" width="9" style="36"/>
+    <col min="3" max="3" width="12.625" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.125" style="36" customWidth="1"/>
+    <col min="5" max="5" width="9" style="36"/>
+    <col min="6" max="6" width="13.25" style="36" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="36"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="35" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="B3" s="36" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="B4" s="36" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="B6" s="36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B20" s="35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="5" t="s">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K22" s="36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C44" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D44" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E44" s="12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="1" t="s">
+      <c r="F44" s="12"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="8">
+        <v>1</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F45" s="11"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="8">
+        <v>2</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F46" s="11"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47" s="8">
+        <v>3</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B48" s="8">
+        <v>4</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F48" s="11"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49" s="8">
+        <v>5</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F49" s="11"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50" s="37">
+        <v>6</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F50" s="11"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" s="35" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="1" t="s">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B53" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
+      <c r="C53" s="35"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B54" s="36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B55" s="36" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B56" s="36" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B50" s="1" t="s">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B59" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
+      <c r="C59" s="35"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B60" s="36" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B61" s="36" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B62" s="36" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B63" s="36" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B64" s="36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B61" s="1" t="s">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B70" s="35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B62" t="s">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B71" s="36" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B63" t="s">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B72" s="36" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B64" t="s">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B73" s="36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B67" t="s">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B75" s="36" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B75" s="1" t="s">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B84" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C75" s="1"/>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B85" s="1" t="s">
+      <c r="C84" s="35"/>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B94" s="35" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B86" s="3" t="s">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B95" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C95" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D86" s="9"/>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B87" s="4"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="7"/>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B88" s="4"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="7"/>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B89" s="4"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="7"/>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B90" s="4"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="7"/>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B91" s="4"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="7"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B102" s="1" t="s">
+      <c r="D95" s="39"/>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B96" s="8"/>
+      <c r="C96" s="40"/>
+      <c r="D96" s="41"/>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B97" s="8"/>
+      <c r="C97" s="40"/>
+      <c r="D97" s="41"/>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B98" s="8"/>
+      <c r="C98" s="40"/>
+      <c r="D98" s="41"/>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B99" s="8"/>
+      <c r="C99" s="40"/>
+      <c r="D99" s="41"/>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B100" s="8"/>
+      <c r="C100" s="40"/>
+      <c r="D100" s="41"/>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B111" s="35" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B103" s="1" t="s">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B112" s="35" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B123" s="1" t="s">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B132" s="35" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C90:D90"/>
+  <mergeCells count="13">
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C99:D99"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:D6"/>
+  <dimension ref="A2:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="30"/>
+    <col min="2" max="2" width="23" style="30" customWidth="1"/>
+    <col min="3" max="3" width="65.25" style="30" customWidth="1"/>
+    <col min="4" max="4" width="18.625" style="30" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="30"/>
+  </cols>
   <sheetData>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D2" s="29" t="s">
         <v>28</v>
       </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1225,370 +1646,478 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I58"/>
+  <dimension ref="B2:M83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47:H47"/>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="9" style="10"/>
-    <col min="7" max="7" width="18" style="10" customWidth="1"/>
-    <col min="8" max="8" width="9" style="10"/>
-    <col min="9" max="9" width="15.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="10"/>
+    <col min="1" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="18" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J11" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="L11" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="M11" s="29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J12" s="7">
+        <v>1</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J13" s="7">
+        <v>2</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J14" s="7">
+        <v>3</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J15" s="7">
+        <v>4</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J16" s="7">
+        <v>5</v>
+      </c>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J17" s="7">
+        <v>6</v>
+      </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B54" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B56" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B57" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="4"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B58" s="24"/>
+      <c r="C58" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="4"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B59" s="24"/>
+      <c r="C59" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="4"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B60" s="24"/>
+      <c r="C60" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="4"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B61" s="24"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="4"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B62" s="24"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="33"/>
+      <c r="I62" s="4"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B63" s="24"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="4"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B64" s="24"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="4"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B65" s="24"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="4"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B66" s="25"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="4"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B67" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="4"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B68" s="22"/>
+      <c r="C68" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D68" s="27"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="4"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B69" s="22"/>
+      <c r="C69" s="10" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="4"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B70" s="22"/>
+      <c r="C70" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="4"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B71" s="5"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="6"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="18"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B73" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="4"/>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B74" s="11"/>
+      <c r="C74" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="4"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B75" s="11"/>
+      <c r="C75" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="4"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B76" s="22" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B31" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B34" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="20"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="16"/>
-      <c r="C35" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="20"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="16"/>
-      <c r="C36" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="20"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B37" s="16"/>
-      <c r="C37" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="I37" s="20"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B38" s="16"/>
-      <c r="C38" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="20"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B39" s="16"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="20"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="16"/>
-      <c r="C40" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="20"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="16"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="20"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="16"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="20"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="17"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="20"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B44" s="14" t="s">
+      <c r="C76" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="4"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B77" s="22"/>
+      <c r="C77" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="4"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B80" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="23" t="s">
+      <c r="C80" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="15"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B45" s="14"/>
-      <c r="C45" s="23" t="s">
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="3"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B81" s="11"/>
+      <c r="C81" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="15"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="14"/>
-      <c r="C46" s="23" t="s">
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="3"/>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B82" s="11"/>
+      <c r="C82" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="15"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="14"/>
-      <c r="C47" s="18" t="s">
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="3"/>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B83" s="11"/>
+      <c r="C83" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="24"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="25"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B50" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="20"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B51" s="14"/>
-      <c r="C51" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="20"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="14"/>
-      <c r="C52" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="20"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="20"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="21"/>
-      <c r="C54" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="20"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="25"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="B34:B43"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="C36:H36"/>
+  <mergeCells count="31">
+    <mergeCell ref="B57:B66"/>
+    <mergeCell ref="C67:H67"/>
+    <mergeCell ref="C65:H65"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="C66:H66"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="C63:H63"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="C76:H76"/>
+    <mergeCell ref="C77:H77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C75:H75"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C73:H73"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C68:H68"/>
+    <mergeCell ref="C72:H72"/>
+    <mergeCell ref="B80:B83"/>
     <mergeCell ref="C57:H57"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C80:H80"/>
+    <mergeCell ref="C81:H81"/>
+    <mergeCell ref="C82:H82"/>
+    <mergeCell ref="C83:H83"/>
+    <mergeCell ref="C74:H74"/>
+    <mergeCell ref="C64:H64"/>
+    <mergeCell ref="C69:H69"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Document/인벤토리.xlsx
+++ b/Document/인벤토리.xlsx
@@ -663,100 +663,100 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1189,17 +1189,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="36"/>
-    <col min="2" max="2" width="10.25" style="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.75" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25" style="36" customWidth="1"/>
-    <col min="5" max="5" width="9" style="36"/>
-    <col min="6" max="6" width="19.125" style="36" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="36"/>
+    <col min="1" max="1" width="9" style="13"/>
+    <col min="2" max="2" width="10.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" style="13" customWidth="1"/>
+    <col min="5" max="5" width="9" style="13"/>
+    <col min="6" max="6" width="19.125" style="13" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1281,41 +1281,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9" style="36"/>
-    <col min="3" max="3" width="12.625" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.125" style="36" customWidth="1"/>
-    <col min="5" max="5" width="9" style="36"/>
-    <col min="6" max="6" width="13.25" style="36" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="36"/>
+    <col min="1" max="2" width="9" style="13"/>
+    <col min="3" max="3" width="12.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="9" style="13"/>
+    <col min="6" max="6" width="13.25" style="13" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="13" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="K22" s="36" t="s">
+      <c r="K22" s="13" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1329,10 +1329,10 @@
       <c r="D44" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E44" s="12" t="s">
+      <c r="E44" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F44" s="12"/>
+      <c r="F44" s="16"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="8">
@@ -1342,10 +1342,10 @@
         <v>74</v>
       </c>
       <c r="D45" s="8"/>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="F45" s="11"/>
+      <c r="F45" s="15"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" s="8">
@@ -1357,10 +1357,10 @@
       <c r="D46" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="F46" s="11"/>
+      <c r="F46" s="15"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" s="8">
@@ -1372,8 +1372,8 @@
       <c r="D47" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" s="8">
@@ -1385,10 +1385,10 @@
       <c r="D48" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="E48" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="F48" s="11"/>
+      <c r="F48" s="15"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49" s="8">
@@ -1400,13 +1400,13 @@
       <c r="D49" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="E49" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="F49" s="11"/>
+      <c r="F49" s="15"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B50" s="37">
+      <c r="B50" s="14">
         <v>6</v>
       </c>
       <c r="C50" s="8" t="s">
@@ -1415,101 +1415,101 @@
       <c r="D50" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E50" s="11" t="s">
+      <c r="E50" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="F50" s="11"/>
+      <c r="F50" s="15"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B52" s="35" t="s">
+      <c r="B52" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B53" s="35" t="s">
+      <c r="B53" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C53" s="35"/>
+      <c r="C53" s="12"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B54" s="36" t="s">
+      <c r="B54" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B55" s="36" t="s">
+      <c r="B55" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B56" s="36" t="s">
+      <c r="B56" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B59" s="35" t="s">
+      <c r="B59" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C59" s="35"/>
+      <c r="C59" s="12"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B60" s="36" t="s">
+      <c r="B60" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B61" s="36" t="s">
+      <c r="B61" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B62" s="36" t="s">
+      <c r="B62" s="13" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B63" s="36" t="s">
+      <c r="B63" s="13" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B64" s="36" t="s">
+      <c r="B64" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B70" s="35" t="s">
+      <c r="B70" s="12" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B71" s="36" t="s">
+      <c r="B71" s="13" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B72" s="36" t="s">
+      <c r="B72" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B73" s="36" t="s">
+      <c r="B73" s="13" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B75" s="36" t="s">
+      <c r="B75" s="13" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B84" s="35" t="s">
+      <c r="B84" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C84" s="35"/>
+      <c r="C84" s="12"/>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B94" s="35" t="s">
+      <c r="B94" s="12" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1517,53 +1517,59 @@
       <c r="B95" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C95" s="38" t="s">
+      <c r="C95" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D95" s="39"/>
+      <c r="D95" s="20"/>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B96" s="8"/>
-      <c r="C96" s="40"/>
-      <c r="D96" s="41"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="18"/>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B97" s="8"/>
-      <c r="C97" s="40"/>
-      <c r="D97" s="41"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="18"/>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B98" s="8"/>
-      <c r="C98" s="40"/>
-      <c r="D98" s="41"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="18"/>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B99" s="8"/>
-      <c r="C99" s="40"/>
-      <c r="D99" s="41"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="18"/>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B100" s="8"/>
-      <c r="C100" s="40"/>
-      <c r="D100" s="41"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="18"/>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B111" s="35" t="s">
+      <c r="B111" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B112" s="35" t="s">
+      <c r="B112" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B132" s="35" t="s">
+      <c r="B132" s="12" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C99:D99"/>
     <mergeCell ref="E49:F49"/>
     <mergeCell ref="E50:F50"/>
     <mergeCell ref="E45:F45"/>
@@ -1571,12 +1577,6 @@
     <mergeCell ref="E46:F46"/>
     <mergeCell ref="E47:F47"/>
     <mergeCell ref="E48:F48"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C99:D99"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1589,30 +1589,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="30"/>
-    <col min="2" max="2" width="23" style="30" customWidth="1"/>
-    <col min="3" max="3" width="65.25" style="30" customWidth="1"/>
-    <col min="4" max="4" width="18.625" style="30" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="30"/>
+    <col min="1" max="1" width="9" style="11"/>
+    <col min="2" max="2" width="23" style="11" customWidth="1"/>
+    <col min="3" max="3" width="65.25" style="11" customWidth="1"/>
+    <col min="4" max="4" width="18.625" style="11" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1692,16 +1692,16 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="J11" s="29" t="s">
+      <c r="J11" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="K11" s="29" t="s">
+      <c r="K11" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="L11" s="29" t="s">
+      <c r="L11" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="M11" s="29" t="s">
+      <c r="M11" s="10" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1775,314 +1775,333 @@
       <c r="B56" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C56" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
       <c r="I56" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B57" s="23" t="s">
+      <c r="B57" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="39"/>
       <c r="I57" s="4"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58" s="24"/>
-      <c r="C58" s="26" t="s">
+      <c r="B58" s="22"/>
+      <c r="C58" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="28"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="32"/>
       <c r="I58" s="4"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B59" s="24"/>
-      <c r="C59" s="26" t="s">
+      <c r="B59" s="22"/>
+      <c r="C59" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="28"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="32"/>
       <c r="I59" s="4"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="24"/>
-      <c r="C60" s="13" t="s">
+      <c r="B60" s="22"/>
+      <c r="C60" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="34"/>
       <c r="I60" s="4"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="24"/>
-      <c r="C61" s="31"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="32"/>
-      <c r="G61" s="32"/>
-      <c r="H61" s="33"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="37"/>
       <c r="I61" s="4"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B62" s="24"/>
-      <c r="C62" s="31"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="32"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="33"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="37"/>
       <c r="I62" s="4"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B63" s="24"/>
-      <c r="C63" s="31"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="32"/>
-      <c r="G63" s="32"/>
-      <c r="H63" s="33"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="37"/>
       <c r="I63" s="4"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B64" s="24"/>
-      <c r="C64" s="31"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="33"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="37"/>
       <c r="I64" s="4"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B65" s="24"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="21"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="29"/>
       <c r="I65" s="4"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="25"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="22"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="33"/>
       <c r="I66" s="4"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B67" s="34" t="s">
+      <c r="B67" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C67" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
-      <c r="H67" s="17"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="26"/>
       <c r="I67" s="4"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B68" s="22"/>
-      <c r="C68" s="26" t="s">
+      <c r="B68" s="33"/>
+      <c r="C68" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="D68" s="27"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="28"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="31"/>
+      <c r="G68" s="31"/>
+      <c r="H68" s="32"/>
       <c r="I68" s="4"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B69" s="22"/>
-      <c r="C69" s="10" t="s">
+      <c r="B69" s="33"/>
+      <c r="C69" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="10"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="39"/>
+      <c r="H69" s="39"/>
       <c r="I69" s="4"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B70" s="22"/>
-      <c r="C70" s="26" t="s">
+      <c r="B70" s="33"/>
+      <c r="C70" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="D70" s="27"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="27"/>
-      <c r="G70" s="27"/>
-      <c r="H70" s="28"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="32"/>
       <c r="I70" s="4"/>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="5"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
-      <c r="H71" s="14"/>
+      <c r="C71" s="40"/>
+      <c r="D71" s="40"/>
+      <c r="E71" s="40"/>
+      <c r="F71" s="40"/>
+      <c r="G71" s="40"/>
+      <c r="H71" s="40"/>
       <c r="I71" s="6"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="18"/>
-      <c r="H72" s="18"/>
+      <c r="C72" s="41"/>
+      <c r="D72" s="41"/>
+      <c r="E72" s="41"/>
+      <c r="F72" s="41"/>
+      <c r="G72" s="41"/>
+      <c r="H72" s="41"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B73" s="11" t="s">
+      <c r="B73" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="C73" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="34"/>
+      <c r="F73" s="34"/>
+      <c r="G73" s="34"/>
+      <c r="H73" s="34"/>
       <c r="I73" s="4"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B74" s="11"/>
-      <c r="C74" s="10" t="s">
+      <c r="B74" s="15"/>
+      <c r="C74" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="39"/>
+      <c r="F74" s="39"/>
+      <c r="G74" s="39"/>
+      <c r="H74" s="39"/>
       <c r="I74" s="4"/>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B75" s="11"/>
-      <c r="C75" s="10" t="s">
+      <c r="B75" s="15"/>
+      <c r="C75" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="39"/>
+      <c r="F75" s="39"/>
+      <c r="G75" s="39"/>
+      <c r="H75" s="39"/>
       <c r="I75" s="4"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B76" s="22" t="s">
+      <c r="B76" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="C76" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
-      <c r="H76" s="13"/>
+      <c r="D76" s="34"/>
+      <c r="E76" s="34"/>
+      <c r="F76" s="34"/>
+      <c r="G76" s="34"/>
+      <c r="H76" s="34"/>
       <c r="I76" s="4"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B77" s="22"/>
-      <c r="C77" s="13" t="s">
+      <c r="B77" s="33"/>
+      <c r="C77" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="13"/>
+      <c r="D77" s="34"/>
+      <c r="E77" s="34"/>
+      <c r="F77" s="34"/>
+      <c r="G77" s="34"/>
+      <c r="H77" s="34"/>
       <c r="I77" s="4"/>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B80" s="11" t="s">
+      <c r="B80" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C80" s="17" t="s">
+      <c r="C80" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D80" s="10"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
-      <c r="H80" s="10"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="39"/>
+      <c r="F80" s="39"/>
+      <c r="G80" s="39"/>
+      <c r="H80" s="39"/>
       <c r="I80" s="3"/>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B81" s="11"/>
-      <c r="C81" s="17" t="s">
+      <c r="B81" s="15"/>
+      <c r="C81" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
-      <c r="H81" s="10"/>
+      <c r="D81" s="39"/>
+      <c r="E81" s="39"/>
+      <c r="F81" s="39"/>
+      <c r="G81" s="39"/>
+      <c r="H81" s="39"/>
       <c r="I81" s="3"/>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B82" s="11"/>
-      <c r="C82" s="17" t="s">
+      <c r="B82" s="15"/>
+      <c r="C82" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D82" s="10"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
-      <c r="H82" s="10"/>
+      <c r="D82" s="39"/>
+      <c r="E82" s="39"/>
+      <c r="F82" s="39"/>
+      <c r="G82" s="39"/>
+      <c r="H82" s="39"/>
       <c r="I82" s="3"/>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B83" s="11"/>
-      <c r="C83" s="10" t="s">
+      <c r="B83" s="15"/>
+      <c r="C83" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="D83" s="10"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10"/>
-      <c r="H83" s="10"/>
+      <c r="D83" s="39"/>
+      <c r="E83" s="39"/>
+      <c r="F83" s="39"/>
+      <c r="G83" s="39"/>
+      <c r="H83" s="39"/>
       <c r="I83" s="4" t="s">
         <v>62</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="C80:H80"/>
+    <mergeCell ref="C81:H81"/>
+    <mergeCell ref="C82:H82"/>
+    <mergeCell ref="C83:H83"/>
+    <mergeCell ref="C74:H74"/>
+    <mergeCell ref="C64:H64"/>
+    <mergeCell ref="C69:H69"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C73:H73"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C68:H68"/>
+    <mergeCell ref="C72:H72"/>
+    <mergeCell ref="C76:H76"/>
+    <mergeCell ref="C77:H77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C75:H75"/>
+    <mergeCell ref="B73:B75"/>
     <mergeCell ref="B57:B66"/>
     <mergeCell ref="C67:H67"/>
     <mergeCell ref="C65:H65"/>
@@ -2095,25 +2114,6 @@
     <mergeCell ref="C62:H62"/>
     <mergeCell ref="C63:H63"/>
     <mergeCell ref="B67:B70"/>
-    <mergeCell ref="C76:H76"/>
-    <mergeCell ref="C77:H77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C75:H75"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C73:H73"/>
-    <mergeCell ref="C71:H71"/>
-    <mergeCell ref="C68:H68"/>
-    <mergeCell ref="C72:H72"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="C80:H80"/>
-    <mergeCell ref="C81:H81"/>
-    <mergeCell ref="C82:H82"/>
-    <mergeCell ref="C83:H83"/>
-    <mergeCell ref="C74:H74"/>
-    <mergeCell ref="C64:H64"/>
-    <mergeCell ref="C69:H69"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
